--- a/0413/강의내용.xlsx
+++ b/0413/강의내용.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimhyuk/Dropbox/뉴딜/0413/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0754E2A9-AA86-6043-A07E-711F27FDB1F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCCCB26-550E-9849-9B03-B76B7AF5C5CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-53460" yWindow="500" windowWidth="15860" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="10900" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -793,7 +793,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="113" zoomScaleNormal="62" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="38" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -912,17 +912,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="18">
       <c r="A16" s="14"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="18">
       <c r="A17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1063,17 +1063,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A37"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
